--- a/VenusSystem.xlsx
+++ b/VenusSystem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Short Description</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>VALIDATION</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,6 +669,50 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
